--- a/characterization/trending_words/trending_keywords_category.xlsx
+++ b/characterization/trending_words/trending_keywords_category.xlsx
@@ -48,7 +48,7 @@
   </si>
   <si>
     <t>trump
-(180)</t>
+(181)</t>
   </si>
   <si>
     <t>obama
@@ -156,7 +156,7 @@
   </si>
   <si>
     <t>obama
-(33)</t>
+(34)</t>
   </si>
   <si>
     <t>president
